--- a/data/trans_camb/P1429-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1429-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-4.935552458479577</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.4178372338629485</v>
+        <v>-0.4178372338629499</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.845516215677219</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.863522341682422</v>
+        <v>-3.83928038204018</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.879566377835977</v>
+        <v>-3.976836936242063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.416314856136072</v>
+        <v>-2.348312236426343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.52291997445097</v>
+        <v>-6.395088756358862</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.153200220381029</v>
+        <v>-7.217534475129852</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.799017765033871</v>
+        <v>-2.909929491080767</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.394675706046647</v>
+        <v>-5.216841380547445</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.424572597099437</v>
+        <v>-5.697887016411357</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.431585662280967</v>
+        <v>-2.55089130298144</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.128754949231302</v>
+        <v>-1.113050644528272</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.155011098089091</v>
+        <v>-1.209188752284775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.100540331186276</v>
+        <v>0.9238994436903581</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.142964165954442</v>
+        <v>-1.951279396951231</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-2.82363122453769</v>
+        <v>-2.884247069833743</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.055456778341394</v>
+        <v>2.090313195070717</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.645660041492094</v>
+        <v>-2.582240325648093</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.850801506848449</v>
+        <v>-2.825346912624821</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6094002241810876</v>
+        <v>0.8934706668322909</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.5956151721182955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.05042397949537311</v>
+        <v>-0.05042397949537328</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.6393531042658347</v>
@@ -786,25 +786,25 @@
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7222127282897081</v>
+        <v>-0.7185467613644627</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6646346326275422</v>
+        <v>-0.665640575718477</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7322678072958326</v>
+        <v>-0.7269218619734226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2926980373703269</v>
+        <v>-0.3035124989329518</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7496734934809391</v>
+        <v>-0.7407178386620737</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7899481377825549</v>
+        <v>-0.791432522397351</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3630904499716852</v>
+        <v>-0.3682646234330337</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.6612203289629301</v>
+        <v>-0.6050669169462289</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.6526977325171894</v>
+        <v>-0.6377182929985884</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8323865943607541</v>
+        <v>0.715978830994369</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2997826454153647</v>
+        <v>-0.2711789342009601</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4014033856336991</v>
+        <v>-0.4023622730319364</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3123891410117849</v>
+        <v>0.2943611901131062</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4967864607105696</v>
+        <v>-0.4813302898126873</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.5547723838977064</v>
+        <v>-0.5419475527210394</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1202693983227046</v>
+        <v>0.1870359210949526</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.3733489152132015</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.291091492858158</v>
+        <v>2.291091492858157</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5722119354154829</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.417141574062651</v>
+        <v>-1.479287324040742</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.009595340074986</v>
+        <v>-1.011331618710948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3878571973768151</v>
+        <v>-0.4360893923499883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2272682758751259</v>
+        <v>0.3042801830711197</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.862057708349304</v>
+        <v>-0.9006325871089617</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.134791187840261</v>
+        <v>1.04013010505568</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2245759900790656</v>
+        <v>-0.2231116289443558</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6293090415429281</v>
+        <v>-0.7060261652025376</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6958934676713988</v>
+        <v>0.6969328946824686</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.274398757068174</v>
+        <v>-0.2459431618715194</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.471581792562822</v>
+        <v>0.5389406755628633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.645401080826629</v>
+        <v>1.850086571765178</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.183063613518898</v>
+        <v>3.05366745650093</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.838700618035663</v>
+        <v>1.729005653603058</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.477691168424375</v>
+        <v>3.35072853029678</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.443293442354456</v>
+        <v>1.464194310519837</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9156987594385243</v>
+        <v>0.8755598598924217</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.327391828830571</v>
+        <v>2.336769092002987</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1801402428852328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.105447909926499</v>
+        <v>1.105447909926498</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3888916077536486</v>
@@ -997,28 +997,28 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8465340889771017</v>
+        <v>-0.8138145660497151</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.418276187996172</v>
+        <v>-0.4332262356398046</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0336535400843027</v>
+        <v>0.08873588834491224</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3491561783343297</v>
+        <v>-0.3497034351334088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3874451461190904</v>
+        <v>0.3425161909597666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1297154884865011</v>
+        <v>-0.1404813499673604</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3572233088495863</v>
+        <v>-0.3976032758733986</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3324726298390666</v>
+        <v>0.3747827642295488</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05947596545566221</v>
+        <v>0.2293129671595735</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.357355878164573</v>
+        <v>1.219108749854218</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.824374139433037</v>
+        <v>3.443329751673518</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.083498914711642</v>
+        <v>2.0283214564484</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.163943804805332</v>
+        <v>1.135872527345178</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.459568896808043</v>
+        <v>2.27851966678347</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.278071048732197</v>
+        <v>1.311593818985392</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8546757473410576</v>
+        <v>0.763452348582268</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.051936579742417</v>
+        <v>2.151600714127971</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.1801190825059729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1975353323195465</v>
+        <v>0.1975353323195466</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.877108873790471</v>
@@ -1083,7 +1083,7 @@
         <v>1.499072191595892</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.319555295755064</v>
+        <v>1.319555295755063</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.788724647115659</v>
@@ -1092,7 +1092,7 @@
         <v>0.6659506814072385</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.833299970145529</v>
+        <v>0.8332999701455287</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.028259268951962</v>
+        <v>-1.018929892495776</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7325877090214591</v>
+        <v>-0.7110156187242694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.355614449164443</v>
+        <v>-0.3308265362802122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05205099775769361</v>
+        <v>-0.06901437718643355</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3305267961835114</v>
+        <v>-0.2427287356973732</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1933851579890971</v>
+        <v>-0.2051809682085483</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1942358873785488</v>
+        <v>-0.1438737304439988</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2873945975255258</v>
+        <v>-0.2618816286070965</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09554375773515295</v>
+        <v>0.01720641300555823</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1676227056961498</v>
+        <v>-0.1629468605585125</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.347696173649354</v>
+        <v>0.368239082491123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7524887214849993</v>
+        <v>0.7007251785219029</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.874010205789553</v>
+        <v>3.767310237123262</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.419564284928339</v>
+        <v>3.522248096851511</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.81981244592583</v>
+        <v>2.782441931053485</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.784137551942638</v>
+        <v>1.829066843423617</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.744654660356173</v>
+        <v>1.640524879555752</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.692890022252717</v>
+        <v>1.632307385700026</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4233212207794951</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4642534086959982</v>
+        <v>0.4642534086959984</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6400742009286148</v>
@@ -1188,7 +1188,7 @@
         <v>0.5111677050636291</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.449954349108161</v>
+        <v>0.4499543491081607</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4919003326063824</v>
@@ -1197,7 +1197,7 @@
         <v>0.4153304488221869</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5197004226690107</v>
+        <v>0.5197004226690105</v>
       </c>
     </row>
     <row r="20">
@@ -1212,25 +1212,25 @@
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6377950848438514</v>
+        <v>-0.6186148863479075</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.008822337100951289</v>
+        <v>-0.01800438564085459</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1065558814073566</v>
+        <v>-0.1123717959620136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06121347069197818</v>
+        <v>-0.07046720593552476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1440387421446923</v>
+        <v>-0.08850323197367906</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1682330135370376</v>
+        <v>-0.1832174452309832</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.03304962132348607</v>
+        <v>-0.001194894190823105</v>
       </c>
     </row>
     <row r="21">
@@ -1242,28 +1242,28 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>3.508961001347139</v>
+        <v>3.747629856298582</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.222050945754717</v>
+        <v>3.725651429641725</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.773856281036924</v>
+        <v>1.668613736293496</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.598823541464488</v>
+        <v>1.538963195021393</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.316920902829862</v>
+        <v>1.269638273849778</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.329332267975482</v>
+        <v>1.44735008324299</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.443488216470981</v>
+        <v>1.299815162066071</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.375198492211759</v>
+        <v>1.345147306468012</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1284,7 @@
         <v>-0.6532524014954367</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.7762882044997603</v>
+        <v>-0.7762882044997604</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.4800704085208485</v>
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.589405229641015</v>
+        <v>-1.661354146147257</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.054281001826103</v>
+        <v>-2.098407992949505</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.323178569447702</v>
+        <v>-2.238343796837991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.187851954022873</v>
+        <v>-3.34046036237261</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.441231048282245</v>
+        <v>-2.278862527254739</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.941372862835673</v>
+        <v>-2.821116665421276</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.791183783237019</v>
+        <v>-1.651621560039461</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.551365435258416</v>
+        <v>-1.523305178370182</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.597800734140806</v>
+        <v>-1.764470342435349</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.187657200932486</v>
+        <v>1.17036560689129</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2092524343444943</v>
+        <v>0.2749062933077625</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.01316821455592552</v>
+        <v>-0.01535328442143861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.990116032930253</v>
+        <v>2.089466050539064</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.149320455670516</v>
+        <v>3.171160510494587</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.745470682939296</v>
+        <v>1.673822063986925</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.014423701553379</v>
+        <v>1.091493865459112</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.48333657811267</v>
+        <v>1.568104693855682</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7806035630738982</v>
+        <v>0.6742352726376919</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1389,7 @@
         <v>-0.6552631831689606</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.7786777037062041</v>
+        <v>-0.7786777037062043</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1331981151112972</v>
@@ -1418,25 +1418,27 @@
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.605846441263623</v>
+        <v>-0.643655219886082</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4961640636106441</v>
+        <v>-0.4714786243901781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5046660321877652</v>
+        <v>-0.4632285489273288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6096744330521356</v>
+        <v>-0.5861036213147498</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5164745583445416</v>
+        <v>-0.5146817928137152</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4997904527876367</v>
+        <v>-0.5216309068751042</v>
       </c>
     </row>
     <row r="27">
@@ -1447,25 +1449,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>1.018455810967582</v>
+        <v>0.9752308584726435</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.541299301091968</v>
+        <v>1.58359294436063</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8185685556914638</v>
+        <v>0.8373350245642116</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.796237120608573</v>
+        <v>0.8529502978568917</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.095132217616434</v>
+        <v>1.138985233152523</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6497539301996853</v>
+        <v>0.495092893549966</v>
       </c>
     </row>
     <row r="28">
@@ -1486,7 +1492,7 @@
         <v>-0.6929569708717722</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.1695761584227292</v>
+        <v>-0.1695761584227294</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.1935566261770293</v>
@@ -1515,31 +1521,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.267005907023333</v>
+        <v>-1.229091686493566</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.121854893035202</v>
+        <v>-1.120517245722959</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6641627528403091</v>
+        <v>-0.6357450811887541</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.131988948737048</v>
+        <v>-1.114055118284891</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.712187418083342</v>
+        <v>-1.831448887382967</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4168637312795663</v>
+        <v>-0.3817843832297924</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.022953835578905</v>
+        <v>-1.065622928554922</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.214347652553786</v>
+        <v>-1.249238597808456</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.2888839748016998</v>
+        <v>-0.347680707686386</v>
       </c>
     </row>
     <row r="30">
@@ -1550,31 +1556,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.4659161784199559</v>
+        <v>-0.4475983418674226</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.2996402116501618</v>
+        <v>-0.3321303638651069</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.292057720618341</v>
+        <v>0.3077386145885719</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7707990079649352</v>
+        <v>0.7815143489436795</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1544209275375329</v>
+        <v>0.1252992533751569</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.362316960815214</v>
+        <v>1.401721134090174</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05035536039711878</v>
+        <v>0.01164122135074356</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1907054640101143</v>
+        <v>-0.2126338668068118</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7595724257175341</v>
+        <v>0.7076050451616366</v>
       </c>
     </row>
     <row r="31">
@@ -1591,7 +1597,7 @@
         <v>-0.6802021249429903</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1664548711497899</v>
+        <v>-0.1664548711497901</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04589935080780743</v>
@@ -1620,31 +1626,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9458095853183697</v>
+        <v>-0.9434027079593076</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8509916705637693</v>
+        <v>-0.8573918586613073</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5202020190645372</v>
+        <v>-0.4948969965997045</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2371463387720578</v>
+        <v>-0.2375148607909268</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3727242699527446</v>
+        <v>-0.3752950476405515</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08821835750385147</v>
+        <v>-0.08555329983065209</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3455984321322634</v>
+        <v>-0.3606926332029528</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4215440958875171</v>
+        <v>-0.4274150744338765</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1017417082039488</v>
+        <v>-0.116420892479643</v>
       </c>
     </row>
     <row r="33">
@@ -1655,31 +1661,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.5052957812906238</v>
+        <v>-0.5070065052998234</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3514966327413552</v>
+        <v>-0.4025121166573272</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4010228888773391</v>
+        <v>0.4669439089675653</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2100433482789248</v>
+        <v>0.201552701885117</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04012176878927157</v>
+        <v>0.04561873010006273</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3660009977189912</v>
+        <v>0.3766489569832316</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02620547735897425</v>
+        <v>0.01013528789018796</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.08192872523043787</v>
+        <v>-0.08038410866144585</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3300813845326109</v>
+        <v>0.3041463842105886</v>
       </c>
     </row>
     <row r="34">
